--- a/natmiOut/OldD2/LR-pairs_lrc2p/Nrg2-Erbb3.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Nrg2-Erbb3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,19 +76,22 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>M2</t>
   </si>
   <si>
+    <t>Neutro</t>
+  </si>
+  <si>
     <t>Nrg2</t>
   </si>
   <si>
     <t>Erbb3</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>M1</t>
   </si>
   <si>
     <t>sCs</t>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.512006920085771</v>
+        <v>0.1058776666666667</v>
       </c>
       <c r="H2">
-        <v>0.512006920085771</v>
+        <v>0.317633</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.1394352143571743</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.1394352143571743</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.127706855121299</v>
+        <v>0.1605563333333333</v>
       </c>
       <c r="N2">
-        <v>0.127706855121299</v>
+        <v>0.481669</v>
       </c>
       <c r="O2">
-        <v>0.01620821741097792</v>
+        <v>0.01905578313479183</v>
       </c>
       <c r="P2">
-        <v>0.01620821741097792</v>
+        <v>0.02595755287029415</v>
       </c>
       <c r="Q2">
-        <v>0.06538679356449607</v>
+        <v>0.01699932994188889</v>
       </c>
       <c r="R2">
-        <v>0.06538679356449607</v>
+        <v>0.152993969477</v>
       </c>
       <c r="S2">
-        <v>0.01620821741097792</v>
+        <v>0.002657047206143525</v>
       </c>
       <c r="T2">
-        <v>0.01620821741097792</v>
+        <v>0.00361939694865715</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>24</v>
-      </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.512006920085771</v>
+        <v>0.1058776666666667</v>
       </c>
       <c r="H3">
-        <v>0.512006920085771</v>
+        <v>0.317633</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.1394352143571743</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.1394352143571743</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.553741808692665</v>
+        <v>0.5664446666666666</v>
       </c>
       <c r="N3">
-        <v>0.553741808692665</v>
+        <v>1.699334</v>
       </c>
       <c r="O3">
-        <v>0.07027945067094503</v>
+        <v>0.06722903109309158</v>
       </c>
       <c r="P3">
-        <v>0.07027945067094503</v>
+        <v>0.09157855736883304</v>
       </c>
       <c r="Q3">
-        <v>0.2835196379914556</v>
+        <v>0.05997383960244444</v>
       </c>
       <c r="R3">
-        <v>0.2835196379914556</v>
+        <v>0.5397645564219999</v>
       </c>
       <c r="S3">
-        <v>0.07027945067094503</v>
+        <v>0.009374094361490363</v>
       </c>
       <c r="T3">
-        <v>0.07027945067094503</v>
+        <v>0.01276927577724402</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.512006920085771</v>
+        <v>0.1058776666666667</v>
       </c>
       <c r="H4">
-        <v>0.512006920085771</v>
+        <v>0.317633</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.1394352143571743</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.1394352143571743</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.887055446878028</v>
+        <v>0.8891996666666667</v>
       </c>
       <c r="N4">
-        <v>0.887055446878028</v>
+        <v>2.667599</v>
       </c>
       <c r="O4">
-        <v>0.1125827389996808</v>
+        <v>0.105535519276905</v>
       </c>
       <c r="P4">
-        <v>0.1125827389996808</v>
+        <v>0.1437591833380263</v>
       </c>
       <c r="Q4">
-        <v>0.4541785273013263</v>
+        <v>0.09414638590744445</v>
       </c>
       <c r="R4">
-        <v>0.4541785273013263</v>
+        <v>0.847317473167</v>
       </c>
       <c r="S4">
-        <v>0.1125827389996808</v>
+        <v>0.01471536775267095</v>
       </c>
       <c r="T4">
-        <v>0.1125827389996808</v>
+        <v>0.02004509254455002</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +711,1053 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G5">
+        <v>0.1058776666666667</v>
+      </c>
+      <c r="H5">
+        <v>0.317633</v>
+      </c>
+      <c r="I5">
+        <v>0.1394352143571743</v>
+      </c>
+      <c r="J5">
+        <v>0.1394352143571743</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M5">
+        <v>0.088632</v>
+      </c>
+      <c r="N5">
+        <v>0.265896</v>
+      </c>
+      <c r="O5">
+        <v>0.01051937432637061</v>
+      </c>
+      <c r="P5">
+        <v>0.01432936202661939</v>
+      </c>
+      <c r="Q5">
+        <v>0.009384149352</v>
+      </c>
+      <c r="R5">
+        <v>0.08445734416800001</v>
+      </c>
+      <c r="S5">
+        <v>0.001466771214100843</v>
+      </c>
+      <c r="T5">
+        <v>0.001998017665783228</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G6">
+        <v>0.1058776666666667</v>
+      </c>
+      <c r="H6">
+        <v>0.317633</v>
+      </c>
+      <c r="I6">
+        <v>0.1394352143571743</v>
+      </c>
+      <c r="J6">
+        <v>0.1394352143571743</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>6.7207635</v>
+      </c>
+      <c r="N6">
+        <v>13.441527</v>
+      </c>
+      <c r="O6">
+        <v>0.797660292168841</v>
+      </c>
+      <c r="P6">
+        <v>0.7243753443962272</v>
+      </c>
+      <c r="Q6">
+        <v>0.7115787575985</v>
+      </c>
+      <c r="R6">
+        <v>4.269472545591</v>
+      </c>
+      <c r="S6">
+        <v>0.1112219338227687</v>
+      </c>
+      <c r="T6">
+        <v>0.1010034314209399</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
         <v>21</v>
       </c>
-      <c r="C5" t="s">
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G7">
+        <v>0.1126416666666667</v>
+      </c>
+      <c r="H7">
+        <v>0.337925</v>
+      </c>
+      <c r="I7">
+        <v>0.1483430399601053</v>
+      </c>
+      <c r="J7">
+        <v>0.1483430399601053</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0.1605563333333333</v>
+      </c>
+      <c r="N7">
+        <v>0.481669</v>
+      </c>
+      <c r="O7">
+        <v>0.01905578313479183</v>
+      </c>
+      <c r="P7">
+        <v>0.02595755287029415</v>
+      </c>
+      <c r="Q7">
+        <v>0.01808533298055555</v>
+      </c>
+      <c r="R7">
+        <v>0.162767996825</v>
+      </c>
+      <c r="S7">
+        <v>0.002826792799035525</v>
+      </c>
+      <c r="T7">
+        <v>0.003850622302704591</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G8">
+        <v>0.1126416666666667</v>
+      </c>
+      <c r="H8">
+        <v>0.337925</v>
+      </c>
+      <c r="I8">
+        <v>0.1483430399601053</v>
+      </c>
+      <c r="J8">
+        <v>0.1483430399601053</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>0.5664446666666666</v>
+      </c>
+      <c r="N8">
+        <v>1.699334</v>
+      </c>
+      <c r="O8">
+        <v>0.06722903109309158</v>
+      </c>
+      <c r="P8">
+        <v>0.09157855736883304</v>
+      </c>
+      <c r="Q8">
+        <v>0.06380527132777776</v>
+      </c>
+      <c r="R8">
+        <v>0.5742474419499999</v>
+      </c>
+      <c r="S8">
+        <v>0.009972958845921647</v>
+      </c>
+      <c r="T8">
+        <v>0.01358504159525359</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>0.512006920085771</v>
-      </c>
-      <c r="H5">
-        <v>0.512006920085771</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>6.3106384182577</v>
-      </c>
-      <c r="N5">
-        <v>6.3106384182577</v>
-      </c>
-      <c r="O5">
-        <v>0.8009295929183963</v>
-      </c>
-      <c r="P5">
-        <v>0.8009295929183963</v>
-      </c>
-      <c r="Q5">
-        <v>3.231090540307067</v>
-      </c>
-      <c r="R5">
-        <v>3.231090540307067</v>
-      </c>
-      <c r="S5">
-        <v>0.8009295929183963</v>
-      </c>
-      <c r="T5">
-        <v>0.8009295929183963</v>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G9">
+        <v>0.1126416666666667</v>
+      </c>
+      <c r="H9">
+        <v>0.337925</v>
+      </c>
+      <c r="I9">
+        <v>0.1483430399601053</v>
+      </c>
+      <c r="J9">
+        <v>0.1483430399601053</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.8891996666666667</v>
+      </c>
+      <c r="N9">
+        <v>2.667599</v>
+      </c>
+      <c r="O9">
+        <v>0.105535519276905</v>
+      </c>
+      <c r="P9">
+        <v>0.1437591833380263</v>
+      </c>
+      <c r="Q9">
+        <v>0.1001609324527778</v>
+      </c>
+      <c r="R9">
+        <v>0.9014483920749999</v>
+      </c>
+      <c r="S9">
+        <v>0.01565545975330438</v>
+      </c>
+      <c r="T9">
+        <v>0.02132567427854494</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>0.1126416666666667</v>
+      </c>
+      <c r="H10">
+        <v>0.337925</v>
+      </c>
+      <c r="I10">
+        <v>0.1483430399601053</v>
+      </c>
+      <c r="J10">
+        <v>0.1483430399601053</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>0.088632</v>
+      </c>
+      <c r="N10">
+        <v>0.265896</v>
+      </c>
+      <c r="O10">
+        <v>0.01051937432637061</v>
+      </c>
+      <c r="P10">
+        <v>0.01432936202661939</v>
+      </c>
+      <c r="Q10">
+        <v>0.0099836562</v>
+      </c>
+      <c r="R10">
+        <v>0.08985290580000001</v>
+      </c>
+      <c r="S10">
+        <v>0.001560475966052102</v>
+      </c>
+      <c r="T10">
+        <v>0.002125661123717615</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>0.1126416666666667</v>
+      </c>
+      <c r="H11">
+        <v>0.337925</v>
+      </c>
+      <c r="I11">
+        <v>0.1483430399601053</v>
+      </c>
+      <c r="J11">
+        <v>0.1483430399601053</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>6.7207635</v>
+      </c>
+      <c r="N11">
+        <v>13.441527</v>
+      </c>
+      <c r="O11">
+        <v>0.797660292168841</v>
+      </c>
+      <c r="P11">
+        <v>0.7243753443962272</v>
+      </c>
+      <c r="Q11">
+        <v>0.7570380019124999</v>
+      </c>
+      <c r="R11">
+        <v>4.542228011475</v>
+      </c>
+      <c r="S11">
+        <v>0.1183273525957917</v>
+      </c>
+      <c r="T11">
+        <v>0.1074560406598846</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.5200893333333333</v>
+      </c>
+      <c r="H12">
+        <v>1.560268</v>
+      </c>
+      <c r="I12">
+        <v>0.6849297870014754</v>
+      </c>
+      <c r="J12">
+        <v>0.6849297870014753</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0.1605563333333333</v>
+      </c>
+      <c r="N12">
+        <v>0.481669</v>
+      </c>
+      <c r="O12">
+        <v>0.01905578313479183</v>
+      </c>
+      <c r="P12">
+        <v>0.02595755287029415</v>
+      </c>
+      <c r="Q12">
+        <v>0.08350363636577778</v>
+      </c>
+      <c r="R12">
+        <v>0.7515327272919999</v>
+      </c>
+      <c r="S12">
+        <v>0.01305187348365927</v>
+      </c>
+      <c r="T12">
+        <v>0.01777910115853011</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.5200893333333333</v>
+      </c>
+      <c r="H13">
+        <v>1.560268</v>
+      </c>
+      <c r="I13">
+        <v>0.6849297870014754</v>
+      </c>
+      <c r="J13">
+        <v>0.6849297870014753</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.5664446666666666</v>
+      </c>
+      <c r="N13">
+        <v>1.699334</v>
+      </c>
+      <c r="O13">
+        <v>0.06722903109309158</v>
+      </c>
+      <c r="P13">
+        <v>0.09157855736883304</v>
+      </c>
+      <c r="Q13">
+        <v>0.2946018290568888</v>
+      </c>
+      <c r="R13">
+        <v>2.651416461512</v>
+      </c>
+      <c r="S13">
+        <v>0.04604716594690679</v>
+      </c>
+      <c r="T13">
+        <v>0.0627248817925372</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.5200893333333333</v>
+      </c>
+      <c r="H14">
+        <v>1.560268</v>
+      </c>
+      <c r="I14">
+        <v>0.6849297870014754</v>
+      </c>
+      <c r="J14">
+        <v>0.6849297870014753</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.8891996666666667</v>
+      </c>
+      <c r="N14">
+        <v>2.667599</v>
+      </c>
+      <c r="O14">
+        <v>0.105535519276905</v>
+      </c>
+      <c r="P14">
+        <v>0.1437591833380263</v>
+      </c>
+      <c r="Q14">
+        <v>0.4624632618368889</v>
+      </c>
+      <c r="R14">
+        <v>4.162169356531999</v>
+      </c>
+      <c r="S14">
+        <v>0.07228442073942064</v>
+      </c>
+      <c r="T14">
+        <v>0.09846494682322042</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.5200893333333333</v>
+      </c>
+      <c r="H15">
+        <v>1.560268</v>
+      </c>
+      <c r="I15">
+        <v>0.6849297870014754</v>
+      </c>
+      <c r="J15">
+        <v>0.6849297870014753</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M15">
+        <v>0.088632</v>
+      </c>
+      <c r="N15">
+        <v>0.265896</v>
+      </c>
+      <c r="O15">
+        <v>0.01051937432637061</v>
+      </c>
+      <c r="P15">
+        <v>0.01432936202661939</v>
+      </c>
+      <c r="Q15">
+        <v>0.046096557792</v>
+      </c>
+      <c r="R15">
+        <v>0.414869020128</v>
+      </c>
+      <c r="S15">
+        <v>0.007205032816749814</v>
+      </c>
+      <c r="T15">
+        <v>0.009814606880759446</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.5200893333333333</v>
+      </c>
+      <c r="H16">
+        <v>1.560268</v>
+      </c>
+      <c r="I16">
+        <v>0.6849297870014754</v>
+      </c>
+      <c r="J16">
+        <v>0.6849297870014753</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>6.7207635</v>
+      </c>
+      <c r="N16">
+        <v>13.441527</v>
+      </c>
+      <c r="O16">
+        <v>0.797660292168841</v>
+      </c>
+      <c r="P16">
+        <v>0.7243753443962272</v>
+      </c>
+      <c r="Q16">
+        <v>3.495397408206</v>
+      </c>
+      <c r="R16">
+        <v>20.972384449236</v>
+      </c>
+      <c r="S16">
+        <v>0.546341294014739</v>
+      </c>
+      <c r="T16">
+        <v>0.4961462503464282</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.02072366666666666</v>
+      </c>
+      <c r="H17">
+        <v>0.062171</v>
+      </c>
+      <c r="I17">
+        <v>0.02729195868124497</v>
+      </c>
+      <c r="J17">
+        <v>0.02729195868124497</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.1605563333333333</v>
+      </c>
+      <c r="N17">
+        <v>0.481669</v>
+      </c>
+      <c r="O17">
+        <v>0.01905578313479183</v>
+      </c>
+      <c r="P17">
+        <v>0.02595755287029415</v>
+      </c>
+      <c r="Q17">
+        <v>0.003327315933222222</v>
+      </c>
+      <c r="R17">
+        <v>0.029945843399</v>
+      </c>
+      <c r="S17">
+        <v>0.0005200696459535033</v>
+      </c>
+      <c r="T17">
+        <v>0.0007084324604022998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.02072366666666666</v>
+      </c>
+      <c r="H18">
+        <v>0.062171</v>
+      </c>
+      <c r="I18">
+        <v>0.02729195868124497</v>
+      </c>
+      <c r="J18">
+        <v>0.02729195868124497</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>0.5664446666666666</v>
+      </c>
+      <c r="N18">
+        <v>1.699334</v>
+      </c>
+      <c r="O18">
+        <v>0.06722903109309158</v>
+      </c>
+      <c r="P18">
+        <v>0.09157855736883304</v>
+      </c>
+      <c r="Q18">
+        <v>0.01173881045711111</v>
+      </c>
+      <c r="R18">
+        <v>0.105649294114</v>
+      </c>
+      <c r="S18">
+        <v>0.001834811938772789</v>
+      </c>
+      <c r="T18">
+        <v>0.002499358203798213</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.02072366666666666</v>
+      </c>
+      <c r="H19">
+        <v>0.062171</v>
+      </c>
+      <c r="I19">
+        <v>0.02729195868124497</v>
+      </c>
+      <c r="J19">
+        <v>0.02729195868124497</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0.8891996666666667</v>
+      </c>
+      <c r="N19">
+        <v>2.667599</v>
+      </c>
+      <c r="O19">
+        <v>0.105535519276905</v>
+      </c>
+      <c r="P19">
+        <v>0.1437591833380263</v>
+      </c>
+      <c r="Q19">
+        <v>0.01842747749211111</v>
+      </c>
+      <c r="R19">
+        <v>0.165847297429</v>
+      </c>
+      <c r="S19">
+        <v>0.002880271031509023</v>
+      </c>
+      <c r="T19">
+        <v>0.003923469691710935</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G20">
+        <v>0.02072366666666666</v>
+      </c>
+      <c r="H20">
+        <v>0.062171</v>
+      </c>
+      <c r="I20">
+        <v>0.02729195868124497</v>
+      </c>
+      <c r="J20">
+        <v>0.02729195868124497</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M20">
+        <v>0.088632</v>
+      </c>
+      <c r="N20">
+        <v>0.265896</v>
+      </c>
+      <c r="O20">
+        <v>0.01051937432637061</v>
+      </c>
+      <c r="P20">
+        <v>0.01432936202661939</v>
+      </c>
+      <c r="Q20">
+        <v>0.001836780024</v>
+      </c>
+      <c r="R20">
+        <v>0.016531020216</v>
+      </c>
+      <c r="S20">
+        <v>0.0002870943294678559</v>
+      </c>
+      <c r="T20">
+        <v>0.000391076356359097</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.02072366666666666</v>
+      </c>
+      <c r="H21">
+        <v>0.062171</v>
+      </c>
+      <c r="I21">
+        <v>0.02729195868124497</v>
+      </c>
+      <c r="J21">
+        <v>0.02729195868124497</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>6.7207635</v>
+      </c>
+      <c r="N21">
+        <v>13.441527</v>
+      </c>
+      <c r="O21">
+        <v>0.797660292168841</v>
+      </c>
+      <c r="P21">
+        <v>0.7243753443962272</v>
+      </c>
+      <c r="Q21">
+        <v>0.1392788625195</v>
+      </c>
+      <c r="R21">
+        <v>0.835673175117</v>
+      </c>
+      <c r="S21">
+        <v>0.0217697117355418</v>
+      </c>
+      <c r="T21">
+        <v>0.01976962196897443</v>
       </c>
     </row>
   </sheetData>
